--- a/project report/non_billable.xlsx
+++ b/project report/non_billable.xlsx
@@ -151,7 +151,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AWS Opportunities</t>
+          <t>AWS Non Billable</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -161,58 +161,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>14h</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>AWS Opportunities</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3h</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>OneData Internal</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>16h</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Operations &amp; Technical</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>9h</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SDP</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>30m</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>UPSKILLED-LMS</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>8h</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>14h</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>44h 30m</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Veslrisk</t>
         </is>
       </c>
-      <c r="B4" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>6h 30m</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="inlineStr">
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>20h</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>31h 30m</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="inlineStr">
         <is>
           <t>Total:</t>
         </is>
       </c>
-      <c r="B5" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>15h 30m</t>
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t>34h</t>
+        </is>
+      </c>
+      <c r="C9" s="11" t="inlineStr">
+        <is>
+          <t>118h 30m</t>
         </is>
       </c>
     </row>
